--- a/WhatACart2/target/test-classes/TestData/TestData.xlsx
+++ b/WhatACart2/target/test-classes/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B196DB-63C8-47AE-B18C-9BAC190F6FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8DBAB-AE75-4FA9-8370-7FA29618B605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
     <t>pragati</t>
   </si>
   <si>
-    <t>qwerty@1</t>
+    <t>Hello123@</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
